--- a/test/data/test-mbus-devices-sheet1.xlsx
+++ b/test/data/test-mbus-devices-sheet1.xlsx
@@ -27,27 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>slaverId</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>dataLength</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>SlaverId</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>FataLength</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
   <si>
     <t>Meter</t>
@@ -237,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,7 +255,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +629,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -632,89 +647,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +737,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,13 +1270,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
@@ -1265,7 +1286,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,74 +1308,86 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/test-mbus-devices-sheet1.xlsx
+++ b/test/data/test-mbus-devices-sheet1.xlsx
@@ -47,7 +47,7 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>FataLength</t>
+    <t>DataLength</t>
   </si>
   <si>
     <t>Weight</t>
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,18 +250,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,16 +617,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -647,89 +635,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,12 +725,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,7 +1255,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1308,85 +1290,85 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
     </row>
